--- a/CVX_Kenya/Interventions/New folder/banan/16.25.xlsx
+++ b/CVX_Kenya/Interventions/New folder/banan/16.25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\New folder\banan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DB945-FE9F-4247-99A3-EAD89C85FC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCC475D-0C6A-49C4-A914-F9F3C8E987E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -839,9 +839,6 @@
     <t>Capital - Machines</t>
   </si>
   <si>
-    <t>Residential and other sectors</t>
-  </si>
-  <si>
     <t>Absolute</t>
   </si>
   <si>
@@ -873,6 +870,9 @@
   </si>
   <si>
     <t>1800-2200</t>
+  </si>
+  <si>
+    <t>Residential</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1037,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1057,9 +1057,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1479,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,18 +1507,18 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>260</v>
+      <c r="B2" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="2">
         <f>main!C35</f>
-        <v>-4.9350649350649242E-2</v>
+        <v>-4.1197579137956753E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,16 +1568,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,13 +1594,13 @@
       <c r="D2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>0.97402597402597202</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="41">
         <v>1.0064935064935043</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <f>(F2-E2)/5</f>
         <v>6.4935064935064627E-3</v>
       </c>
@@ -1683,20 +1680,20 @@
         <v>205</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>266</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1726,7 +1723,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1756,7 +1753,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1786,7 +1783,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1816,7 +1813,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1846,7 +1843,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1876,7 +1873,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1905,7 +1902,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1934,7 +1931,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1963,7 +1960,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1993,7 +1990,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2098,16 +2095,16 @@
         <v>205</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2246,10 +2243,10 @@
       <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2263,10 +2260,10 @@
       <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>237</v>
       </c>
     </row>
@@ -2280,10 +2277,10 @@
       <c r="C4" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2297,10 +2294,10 @@
       <c r="C5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2314,10 +2311,10 @@
       <c r="C6" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2331,10 +2328,10 @@
       <c r="C7" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2348,10 +2345,10 @@
       <c r="C8" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2365,10 +2362,10 @@
       <c r="C9" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2382,7 +2379,7 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2396,7 +2393,7 @@
       <c r="C11" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2410,7 +2407,7 @@
       <c r="C12" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2424,7 +2421,7 @@
       <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2449,10 +2446,10 @@
       <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2934,18 +2931,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="74.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2955,585 +2952,585 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>0.5</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="42">
         <v>0.25</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>88278</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>2000</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="26" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="25"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>16.25</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="20">
+        <v>7</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="20">
+        <v>10410</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="21">
+        <v>800000</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="21">
+        <v>8.3479305095333606E-2</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="21">
+        <v>-0.08</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="21">
-        <v>7</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="21">
-        <v>10410</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="22">
-        <v>800000</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="22">
-        <v>8.3479305095333606E-2</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="22">
-        <v>-0.08</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="21">
+        <v>-0.02</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1.4711494355346697E-4</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="22">
-        <v>-0.02</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="22">
-        <v>3.8</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="20">
-        <v>1.4711494355346697E-4</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="20">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f>1-C11</f>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f>1-C12</f>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <v>-0.4</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <f>C5*C6*C3*(C7+C19)/1000</f>
         <v>6797.4060000000009</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <f>C9*C8*C6*C5*C3/1000000</f>
         <v>5020.8112499999997</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <f>C16*C18</f>
         <v>-2.9422988710693394E-6</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <f>C14*C20*C18</f>
         <v>-4.9124213027930593E-6</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <f>C21*C14*C18</f>
         <v>-4.9124213027930593E-6</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="40"/>
+      <c r="B28" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <f>C22*C14*C18</f>
         <v>-4.912421302793061E-6</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <f>C23*C18</f>
         <v>0.99999999999999778</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31" t="s">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="46"/>
+      <c r="B30" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="32">
         <f>C25</f>
         <v>-2.9422988710693394E-6</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31" t="s">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="30" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="34">
         <v>0</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="33">
         <f>-0.27*C14*C18</f>
         <v>-3.3158843793853162E-6</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="34">
         <f>0.38*C14*C18</f>
         <v>4.666800237653407E-6</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="30" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="34">
         <f>-C24*C18/C10</f>
         <v>-7.095450179023649E-5</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="C35" s="35">
-        <f>-C17*C18*C5/1000</f>
-        <v>-4.9350649350649242E-2</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31" t="s">
+      <c r="C35" s="34">
+        <f>-C17*C18*C5/1000*C14</f>
+        <v>-4.1197579137956753E-3</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="30" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3584,7 +3581,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B2" s="7">
         <v>20</v>
